--- a/Сайты+что добавил/Список сайтов часть вторая/ООО Спекр Плюс/prise.xlsx
+++ b/Сайты+что добавил/Список сайтов часть вторая/ООО Спекр Плюс/prise.xlsx
@@ -822,7 +822,7 @@
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,13 +830,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -844,7 +844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -868,13 +868,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -882,7 +882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -890,7 +890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -898,7 +898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -906,7 +906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -918,13 +918,13 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -932,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -940,7 +940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -948,7 +948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -956,7 +956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -964,13 +964,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -986,7 +986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -994,7 +994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1010,13 +1010,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>58</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="300" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>64</v>
       </c>
